--- a/2019年打卡记录.xlsx
+++ b/2019年打卡记录.xlsx
@@ -489,130 +489,130 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -922,7 +922,7 @@
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -933,55 +933,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="23"/>
-      <c r="H1" s="22" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="33"/>
+      <c r="H1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="L1" s="22" t="s">
+      <c r="I1" s="33"/>
+      <c r="L1" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="23"/>
+      <c r="M1" s="33"/>
     </row>
     <row r="2" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="15">
+      <c r="A3" s="45">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="10">
         <v>1</v>
       </c>
       <c r="D3" s="6">
@@ -990,496 +990,503 @@
       <c r="E3" s="5">
         <v>1</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="42">
         <f>SUM(D3:D9)</f>
+        <v>6.5</v>
+      </c>
+      <c r="I3" s="44">
+        <f>SUM(E3:E9)</f>
+        <v>6</v>
+      </c>
+      <c r="L3" s="34">
+        <f>SUM(D3:D37)</f>
+        <v>6.5</v>
+      </c>
+      <c r="M3" s="36">
+        <f>SUM(E3:E37)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="39"/>
+      <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="21">
-        <f>SUM(E3:E9)</f>
+      <c r="C4" s="11">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="L3" s="45">
-        <f>SUM(D3:D37)</f>
-        <v>1</v>
-      </c>
-      <c r="M3" s="47">
-        <f>SUM(E3:E37)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="16"/>
-      <c r="B4" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="13">
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="29"/>
+      <c r="I4" s="30"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="37"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="39"/>
+      <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="8"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="19"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="48"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="13" t="s">
+      <c r="C5" s="11">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="E5" s="7">
         <v>2</v>
       </c>
-      <c r="C5" s="13">
+      <c r="H5" s="29"/>
+      <c r="I5" s="30"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="39"/>
+      <c r="B6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="8"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="19"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
-      <c r="B6" s="13" t="s">
+      <c r="C6" s="11">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4">
         <v>3</v>
       </c>
-      <c r="C6" s="13">
+      <c r="E6" s="7">
+        <v>3</v>
+      </c>
+      <c r="H6" s="29"/>
+      <c r="I6" s="30"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="39"/>
+      <c r="B7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="8"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="19"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
-      <c r="B7" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="13">
+      <c r="C7" s="11">
         <v>5</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="8"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="19"/>
+      <c r="E7" s="7"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="30"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="39"/>
+      <c r="B8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="11">
         <v>6</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="8"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="19"/>
+      <c r="E8" s="7"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="30"/>
     </row>
     <row r="9" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="17"/>
-      <c r="B9" s="14" t="s">
+      <c r="A9" s="40"/>
+      <c r="B9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="12">
         <v>7</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="19"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="30"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="33">
+      <c r="A10" s="46">
         <v>2</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="20">
         <v>8</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="36"/>
-      <c r="H10" s="7">
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
+      <c r="H10" s="29">
         <f t="shared" ref="H10:I10" si="0">SUM(D10:D16)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="37"/>
-      <c r="B11" s="38" t="s">
+      <c r="A11" s="47"/>
+      <c r="B11" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="23">
         <v>9</v>
       </c>
-      <c r="D11" s="39"/>
-      <c r="E11" s="40"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="19"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="30"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="37"/>
-      <c r="B12" s="38" t="s">
+      <c r="A12" s="47"/>
+      <c r="B12" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="23">
         <v>10</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="40"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="19"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="30"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="37"/>
-      <c r="B13" s="38" t="s">
+      <c r="A13" s="47"/>
+      <c r="B13" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C13" s="23">
         <v>11</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="40"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="19"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="30"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="37"/>
-      <c r="B14" s="38" t="s">
+      <c r="A14" s="47"/>
+      <c r="B14" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="23">
         <v>12</v>
       </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="19"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="30"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="37"/>
-      <c r="B15" s="38" t="s">
+      <c r="A15" s="47"/>
+      <c r="B15" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="38">
+      <c r="C15" s="23">
         <v>13</v>
       </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="40"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="19"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="30"/>
     </row>
     <row r="16" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="41"/>
-      <c r="B16" s="42" t="s">
+      <c r="A16" s="48"/>
+      <c r="B16" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="42">
+      <c r="C16" s="26">
         <v>14</v>
       </c>
-      <c r="D16" s="43"/>
-      <c r="E16" s="44"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="19"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="28"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="30"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="15">
+      <c r="A17" s="45">
         <v>3</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="10">
         <v>15</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="5"/>
-      <c r="H17" s="7">
+      <c r="H17" s="29">
         <f t="shared" ref="H17:I17" si="1">SUM(D17:D23)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
-      <c r="B18" s="13" t="s">
+      <c r="A18" s="39"/>
+      <c r="B18" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="11">
         <v>16</v>
       </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="8"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="19"/>
+      <c r="E18" s="7"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="30"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
-      <c r="B19" s="13" t="s">
+      <c r="A19" s="39"/>
+      <c r="B19" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="11">
         <v>17</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="8"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="19"/>
+      <c r="E19" s="7"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="30"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
-      <c r="B20" s="13" t="s">
+      <c r="A20" s="39"/>
+      <c r="B20" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="11">
         <v>18</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="8"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="19"/>
+      <c r="E20" s="7"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="30"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
-      <c r="B21" s="13" t="s">
+      <c r="A21" s="39"/>
+      <c r="B21" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="11">
         <v>19</v>
       </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="8"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="19"/>
+      <c r="E21" s="7"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="30"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
-      <c r="B22" s="13" t="s">
+      <c r="A22" s="39"/>
+      <c r="B22" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="11">
         <v>20</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="8"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="19"/>
+      <c r="E22" s="7"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="30"/>
     </row>
     <row r="23" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="17"/>
-      <c r="B23" s="14" t="s">
+      <c r="A23" s="40"/>
+      <c r="B23" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="12">
         <v>21</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="19"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="30"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="33">
+      <c r="A24" s="46">
         <v>4</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="34">
+      <c r="C24" s="20">
         <v>22</v>
       </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36"/>
-      <c r="H24" s="7">
+      <c r="D24" s="21"/>
+      <c r="E24" s="22"/>
+      <c r="H24" s="29">
         <f t="shared" ref="H24:I24" si="2">SUM(D24:D30)</f>
         <v>0</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I24" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="37"/>
-      <c r="B25" s="38" t="s">
+      <c r="A25" s="47"/>
+      <c r="B25" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="38">
+      <c r="C25" s="23">
         <v>23</v>
       </c>
-      <c r="D25" s="39"/>
-      <c r="E25" s="40"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="19"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="25"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="30"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="37"/>
-      <c r="B26" s="38" t="s">
+      <c r="A26" s="47"/>
+      <c r="B26" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="38">
+      <c r="C26" s="23">
         <v>24</v>
       </c>
-      <c r="D26" s="39"/>
-      <c r="E26" s="40"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="19"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="25"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="30"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="37"/>
-      <c r="B27" s="38" t="s">
+      <c r="A27" s="47"/>
+      <c r="B27" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="38">
+      <c r="C27" s="23">
         <v>25</v>
       </c>
-      <c r="D27" s="39"/>
-      <c r="E27" s="40"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="19"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="25"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="30"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="37"/>
-      <c r="B28" s="38" t="s">
+      <c r="A28" s="47"/>
+      <c r="B28" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="38">
+      <c r="C28" s="23">
         <v>26</v>
       </c>
-      <c r="D28" s="39"/>
-      <c r="E28" s="40"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="19"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="25"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="30"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="37"/>
-      <c r="B29" s="38" t="s">
+      <c r="A29" s="47"/>
+      <c r="B29" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="38">
+      <c r="C29" s="23">
         <v>27</v>
       </c>
-      <c r="D29" s="39"/>
-      <c r="E29" s="40"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="19"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="25"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="30"/>
     </row>
     <row r="30" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="41"/>
-      <c r="B30" s="42" t="s">
+      <c r="A30" s="48"/>
+      <c r="B30" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="42">
+      <c r="C30" s="26">
         <v>28</v>
       </c>
-      <c r="D30" s="43"/>
-      <c r="E30" s="44"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="19"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="28"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="30"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="28">
+      <c r="A31" s="38">
         <v>5</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="29">
+      <c r="C31" s="16">
         <v>29</v>
       </c>
-      <c r="D31" s="30"/>
-      <c r="E31" s="31"/>
-      <c r="H31" s="7">
+      <c r="D31" s="17"/>
+      <c r="E31" s="18"/>
+      <c r="H31" s="29">
         <f t="shared" ref="H31:I31" si="3">SUM(D31:D37)</f>
         <v>0</v>
       </c>
-      <c r="I31" s="19">
+      <c r="I31" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="16"/>
-      <c r="B32" s="13" t="s">
+      <c r="A32" s="39"/>
+      <c r="B32" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="11">
         <v>30</v>
       </c>
       <c r="D32" s="4"/>
-      <c r="E32" s="8"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="19"/>
+      <c r="E32" s="7"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="30"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="16"/>
-      <c r="B33" s="13" t="s">
+      <c r="A33" s="39"/>
+      <c r="B33" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="13"/>
+      <c r="C33" s="11"/>
       <c r="D33" s="4"/>
-      <c r="E33" s="8"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="19"/>
+      <c r="E33" s="7"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="30"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="16"/>
-      <c r="B34" s="13" t="s">
+      <c r="A34" s="39"/>
+      <c r="B34" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="13"/>
+      <c r="C34" s="11"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="8"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="19"/>
+      <c r="E34" s="7"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="30"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="16"/>
-      <c r="B35" s="13" t="s">
+      <c r="A35" s="39"/>
+      <c r="B35" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="13"/>
+      <c r="C35" s="11"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="8"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="19"/>
+      <c r="E35" s="7"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="30"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="16"/>
-      <c r="B36" s="13" t="s">
+      <c r="A36" s="39"/>
+      <c r="B36" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="13"/>
+      <c r="C36" s="11"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="8"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="19"/>
+      <c r="E36" s="7"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="30"/>
     </row>
     <row r="37" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="17"/>
-      <c r="B37" s="14" t="s">
+      <c r="A37" s="40"/>
+      <c r="B37" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="11"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="20"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="9"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="H10:H16"/>
-    <mergeCell ref="H17:H23"/>
-    <mergeCell ref="I17:I23"/>
-    <mergeCell ref="I24:I30"/>
-    <mergeCell ref="I31:I37"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:M4"/>
@@ -1495,6 +1502,11 @@
     <mergeCell ref="A10:A16"/>
     <mergeCell ref="A17:A23"/>
     <mergeCell ref="A24:A30"/>
+    <mergeCell ref="H10:H16"/>
+    <mergeCell ref="H17:H23"/>
+    <mergeCell ref="I17:I23"/>
+    <mergeCell ref="I24:I30"/>
+    <mergeCell ref="I31:I37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2019年打卡记录.xlsx
+++ b/2019年打卡记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="242" yWindow="109" windowWidth="14799" windowHeight="8011"/>
   </bookViews>
   <sheets>
     <sheet name="4月" sheetId="1" r:id="rId1"/>
@@ -555,64 +555,64 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -922,36 +922,36 @@
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="5" width="9" style="2"/>
     <col min="6" max="13" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="16.95" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="33"/>
-      <c r="H1" s="32" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="30"/>
+      <c r="H1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="L1" s="32" t="s">
+      <c r="I1" s="30"/>
+      <c r="L1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="33"/>
-    </row>
-    <row r="2" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="16.95" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C2" s="15" t="s">
         <v>7</v>
       </c>
@@ -974,8 +974,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="45">
+    <row r="3" spans="1:13" ht="16.350000000000001" x14ac:dyDescent="0.4">
+      <c r="A3" s="44">
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -990,25 +990,25 @@
       <c r="E3" s="5">
         <v>1</v>
       </c>
-      <c r="H3" s="42">
+      <c r="H3" s="39">
         <f>SUM(D3:D9)</f>
         <v>6.5</v>
       </c>
-      <c r="I3" s="44">
+      <c r="I3" s="42">
         <f>SUM(E3:E9)</f>
         <v>6</v>
       </c>
-      <c r="L3" s="34">
+      <c r="L3" s="31">
         <f>SUM(D3:D37)</f>
-        <v>6.5</v>
-      </c>
-      <c r="M3" s="36">
+        <v>12.5</v>
+      </c>
+      <c r="M3" s="33">
         <f>SUM(E3:E37)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="39"/>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="16.95" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="36"/>
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
@@ -1021,13 +1021,13 @@
       <c r="E4" s="7">
         <v>0</v>
       </c>
-      <c r="H4" s="29"/>
-      <c r="I4" s="30"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="37"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="43"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="34"/>
+    </row>
+    <row r="5" spans="1:13" ht="16.350000000000001" x14ac:dyDescent="0.4">
+      <c r="A5" s="36"/>
       <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
@@ -1040,11 +1040,11 @@
       <c r="E5" s="7">
         <v>2</v>
       </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="30"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="43"/>
+    </row>
+    <row r="6" spans="1:13" ht="16.350000000000001" x14ac:dyDescent="0.4">
+      <c r="A6" s="36"/>
       <c r="B6" s="11" t="s">
         <v>3</v>
       </c>
@@ -1057,11 +1057,11 @@
       <c r="E6" s="7">
         <v>3</v>
       </c>
-      <c r="H6" s="29"/>
-      <c r="I6" s="30"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="39"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="43"/>
+    </row>
+    <row r="7" spans="1:13" ht="16.350000000000001" x14ac:dyDescent="0.4">
+      <c r="A7" s="36"/>
       <c r="B7" s="11" t="s">
         <v>4</v>
       </c>
@@ -1070,11 +1070,11 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="7"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="39"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="43"/>
+    </row>
+    <row r="8" spans="1:13" ht="16.350000000000001" x14ac:dyDescent="0.4">
+      <c r="A8" s="36"/>
       <c r="B8" s="11" t="s">
         <v>5</v>
       </c>
@@ -1083,11 +1083,11 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="7"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="30"/>
-    </row>
-    <row r="9" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="43"/>
+    </row>
+    <row r="9" spans="1:13" ht="16.95" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="37"/>
       <c r="B9" s="12" t="s">
         <v>6</v>
       </c>
@@ -1096,11 +1096,11 @@
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="9"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="30"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="46">
+      <c r="H9" s="40"/>
+      <c r="I9" s="43"/>
+    </row>
+    <row r="10" spans="1:13" ht="16.350000000000001" x14ac:dyDescent="0.4">
+      <c r="A10" s="45">
         <v>2</v>
       </c>
       <c r="B10" s="20" t="s">
@@ -1109,32 +1109,40 @@
       <c r="C10" s="20">
         <v>8</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
-      <c r="H10" s="29">
+      <c r="D10" s="21">
+        <v>3</v>
+      </c>
+      <c r="E10" s="22">
+        <v>3</v>
+      </c>
+      <c r="H10" s="40">
         <f t="shared" ref="H10:I10" si="0">SUM(D10:D16)</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="30">
+        <v>6</v>
+      </c>
+      <c r="I10" s="43">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="16.350000000000001" x14ac:dyDescent="0.4">
+      <c r="A11" s="46"/>
       <c r="B11" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="23">
         <v>9</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="30"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="47"/>
+      <c r="D11" s="24">
+        <v>3</v>
+      </c>
+      <c r="E11" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="H11" s="40"/>
+      <c r="I11" s="43"/>
+    </row>
+    <row r="12" spans="1:13" ht="16.350000000000001" x14ac:dyDescent="0.4">
+      <c r="A12" s="46"/>
       <c r="B12" s="23" t="s">
         <v>2</v>
       </c>
@@ -1143,11 +1151,11 @@
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="25"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="30"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="43"/>
+    </row>
+    <row r="13" spans="1:13" ht="16.350000000000001" x14ac:dyDescent="0.4">
+      <c r="A13" s="46"/>
       <c r="B13" s="23" t="s">
         <v>3</v>
       </c>
@@ -1156,11 +1164,11 @@
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="25"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="30"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="47"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="43"/>
+    </row>
+    <row r="14" spans="1:13" ht="16.350000000000001" x14ac:dyDescent="0.4">
+      <c r="A14" s="46"/>
       <c r="B14" s="23" t="s">
         <v>4</v>
       </c>
@@ -1169,11 +1177,11 @@
       </c>
       <c r="D14" s="24"/>
       <c r="E14" s="25"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="30"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="47"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="43"/>
+    </row>
+    <row r="15" spans="1:13" ht="16.350000000000001" x14ac:dyDescent="0.4">
+      <c r="A15" s="46"/>
       <c r="B15" s="23" t="s">
         <v>5</v>
       </c>
@@ -1182,11 +1190,11 @@
       </c>
       <c r="D15" s="24"/>
       <c r="E15" s="25"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="30"/>
-    </row>
-    <row r="16" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="48"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="43"/>
+    </row>
+    <row r="16" spans="1:13" ht="16.95" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="47"/>
       <c r="B16" s="26" t="s">
         <v>6</v>
       </c>
@@ -1195,11 +1203,11 @@
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="28"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="30"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="45">
+      <c r="H16" s="40"/>
+      <c r="I16" s="43"/>
+    </row>
+    <row r="17" spans="1:9" ht="16.350000000000001" x14ac:dyDescent="0.4">
+      <c r="A17" s="44">
         <v>3</v>
       </c>
       <c r="B17" s="10" t="s">
@@ -1210,17 +1218,17 @@
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="5"/>
-      <c r="H17" s="29">
+      <c r="H17" s="40">
         <f t="shared" ref="H17:I17" si="1">SUM(D17:D23)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="30">
+      <c r="I17" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="39"/>
+    <row r="18" spans="1:9" ht="16.350000000000001" x14ac:dyDescent="0.4">
+      <c r="A18" s="36"/>
       <c r="B18" s="11" t="s">
         <v>1</v>
       </c>
@@ -1229,11 +1237,11 @@
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="30"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="39"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="43"/>
+    </row>
+    <row r="19" spans="1:9" ht="16.350000000000001" x14ac:dyDescent="0.4">
+      <c r="A19" s="36"/>
       <c r="B19" s="11" t="s">
         <v>2</v>
       </c>
@@ -1242,11 +1250,11 @@
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="7"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="30"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="39"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="43"/>
+    </row>
+    <row r="20" spans="1:9" ht="16.350000000000001" x14ac:dyDescent="0.4">
+      <c r="A20" s="36"/>
       <c r="B20" s="11" t="s">
         <v>3</v>
       </c>
@@ -1255,11 +1263,11 @@
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="7"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="30"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="39"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="43"/>
+    </row>
+    <row r="21" spans="1:9" ht="16.350000000000001" x14ac:dyDescent="0.4">
+      <c r="A21" s="36"/>
       <c r="B21" s="11" t="s">
         <v>4</v>
       </c>
@@ -1268,11 +1276,11 @@
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="7"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="30"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="39"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="43"/>
+    </row>
+    <row r="22" spans="1:9" ht="16.350000000000001" x14ac:dyDescent="0.4">
+      <c r="A22" s="36"/>
       <c r="B22" s="11" t="s">
         <v>5</v>
       </c>
@@ -1281,11 +1289,11 @@
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="7"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="30"/>
-    </row>
-    <row r="23" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="43"/>
+    </row>
+    <row r="23" spans="1:9" ht="16.95" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="37"/>
       <c r="B23" s="12" t="s">
         <v>6</v>
       </c>
@@ -1294,11 +1302,11 @@
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="9"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="30"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="46">
+      <c r="H23" s="40"/>
+      <c r="I23" s="43"/>
+    </row>
+    <row r="24" spans="1:9" ht="16.350000000000001" x14ac:dyDescent="0.4">
+      <c r="A24" s="45">
         <v>4</v>
       </c>
       <c r="B24" s="20" t="s">
@@ -1309,17 +1317,17 @@
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="22"/>
-      <c r="H24" s="29">
+      <c r="H24" s="40">
         <f t="shared" ref="H24:I24" si="2">SUM(D24:D30)</f>
         <v>0</v>
       </c>
-      <c r="I24" s="30">
+      <c r="I24" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="47"/>
+    <row r="25" spans="1:9" ht="16.350000000000001" x14ac:dyDescent="0.4">
+      <c r="A25" s="46"/>
       <c r="B25" s="23" t="s">
         <v>1</v>
       </c>
@@ -1328,11 +1336,11 @@
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="25"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="30"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="47"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="43"/>
+    </row>
+    <row r="26" spans="1:9" ht="16.350000000000001" x14ac:dyDescent="0.4">
+      <c r="A26" s="46"/>
       <c r="B26" s="23" t="s">
         <v>2</v>
       </c>
@@ -1341,11 +1349,11 @@
       </c>
       <c r="D26" s="24"/>
       <c r="E26" s="25"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="30"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="47"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="43"/>
+    </row>
+    <row r="27" spans="1:9" ht="16.350000000000001" x14ac:dyDescent="0.4">
+      <c r="A27" s="46"/>
       <c r="B27" s="23" t="s">
         <v>3</v>
       </c>
@@ -1354,11 +1362,11 @@
       </c>
       <c r="D27" s="24"/>
       <c r="E27" s="25"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="30"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="47"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="43"/>
+    </row>
+    <row r="28" spans="1:9" ht="16.350000000000001" x14ac:dyDescent="0.4">
+      <c r="A28" s="46"/>
       <c r="B28" s="23" t="s">
         <v>4</v>
       </c>
@@ -1367,11 +1375,11 @@
       </c>
       <c r="D28" s="24"/>
       <c r="E28" s="25"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="30"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="47"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="43"/>
+    </row>
+    <row r="29" spans="1:9" ht="16.350000000000001" x14ac:dyDescent="0.4">
+      <c r="A29" s="46"/>
       <c r="B29" s="23" t="s">
         <v>5</v>
       </c>
@@ -1380,11 +1388,11 @@
       </c>
       <c r="D29" s="24"/>
       <c r="E29" s="25"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="30"/>
-    </row>
-    <row r="30" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="48"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="43"/>
+    </row>
+    <row r="30" spans="1:9" ht="16.95" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="47"/>
       <c r="B30" s="26" t="s">
         <v>6</v>
       </c>
@@ -1393,11 +1401,11 @@
       </c>
       <c r="D30" s="27"/>
       <c r="E30" s="28"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="30"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="38">
+      <c r="H30" s="40"/>
+      <c r="I30" s="43"/>
+    </row>
+    <row r="31" spans="1:9" ht="16.350000000000001" x14ac:dyDescent="0.4">
+      <c r="A31" s="35">
         <v>5</v>
       </c>
       <c r="B31" s="16" t="s">
@@ -1408,17 +1416,17 @@
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="18"/>
-      <c r="H31" s="29">
+      <c r="H31" s="40">
         <f t="shared" ref="H31:I31" si="3">SUM(D31:D37)</f>
         <v>0</v>
       </c>
-      <c r="I31" s="30">
+      <c r="I31" s="43">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="39"/>
+    <row r="32" spans="1:9" ht="16.350000000000001" x14ac:dyDescent="0.4">
+      <c r="A32" s="36"/>
       <c r="B32" s="11" t="s">
         <v>1</v>
       </c>
@@ -1427,66 +1435,70 @@
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="7"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="30"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="39"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="43"/>
+    </row>
+    <row r="33" spans="1:9" ht="16.350000000000001" x14ac:dyDescent="0.4">
+      <c r="A33" s="36"/>
       <c r="B33" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="4"/>
       <c r="E33" s="7"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="30"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="39"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="43"/>
+    </row>
+    <row r="34" spans="1:9" ht="16.350000000000001" x14ac:dyDescent="0.4">
+      <c r="A34" s="36"/>
       <c r="B34" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="4"/>
       <c r="E34" s="7"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="30"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="39"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="43"/>
+    </row>
+    <row r="35" spans="1:9" ht="16.350000000000001" x14ac:dyDescent="0.4">
+      <c r="A35" s="36"/>
       <c r="B35" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="4"/>
       <c r="E35" s="7"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="30"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="39"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="43"/>
+    </row>
+    <row r="36" spans="1:9" ht="16.350000000000001" x14ac:dyDescent="0.4">
+      <c r="A36" s="36"/>
       <c r="B36" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="4"/>
       <c r="E36" s="7"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="30"/>
-    </row>
-    <row r="37" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="43"/>
+    </row>
+    <row r="37" spans="1:9" ht="16.95" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="37"/>
       <c r="B37" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="8"/>
       <c r="E37" s="9"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="31"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="H17:H23"/>
+    <mergeCell ref="I17:I23"/>
+    <mergeCell ref="I24:I30"/>
+    <mergeCell ref="I31:I37"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:M4"/>
@@ -1503,10 +1515,6 @@
     <mergeCell ref="A17:A23"/>
     <mergeCell ref="A24:A30"/>
     <mergeCell ref="H10:H16"/>
-    <mergeCell ref="H17:H23"/>
-    <mergeCell ref="I17:I23"/>
-    <mergeCell ref="I24:I30"/>
-    <mergeCell ref="I31:I37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
